--- a/upload/feminicidio_2023.xlsx
+++ b/upload/feminicidio_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF32630-F8BF-4DE9-B209-37DDED3BCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D690E95B-F31A-4D45-93C9-8C06558137C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9D3C8984-9F4E-44B1-96E6-F492691B098E}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>3) Interior de MG</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
     <t>BELO HORIZONTE</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>13º RISP - Barbacena</t>
+  </si>
+  <si>
+    <t>CONSUMADO</t>
   </si>
 </sst>
 </file>
@@ -350,8 +350,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,44 +670,47 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -714,10 +718,10 @@
         <v>310180</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -726,13 +730,13 @@
         <v>2023</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -745,7 +749,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3">
@@ -755,13 +759,13 @@
         <v>2023</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -772,10 +776,10 @@
         <v>310620</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -784,13 +788,13 @@
         <v>2023</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -801,25 +805,25 @@
         <v>310620</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2023</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -830,10 +834,10 @@
         <v>310620</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -842,13 +846,13 @@
         <v>2023</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -859,10 +863,10 @@
         <v>310620</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -871,13 +875,13 @@
         <v>2023</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -888,25 +892,25 @@
         <v>310670</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2023</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -917,11 +921,11 @@
         <v>310690</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -929,13 +933,13 @@
         <v>2023</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -946,10 +950,10 @@
         <v>310720</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
         <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -958,13 +962,13 @@
         <v>2023</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -975,11 +979,11 @@
         <v>311570</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -987,13 +991,13 @@
         <v>2023</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1004,11 +1008,11 @@
         <v>311860</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -1016,13 +1020,13 @@
         <v>2023</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1033,10 +1037,10 @@
         <v>311860</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1045,13 +1049,13 @@
         <v>2023</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1062,11 +1066,11 @@
         <v>311930</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -1074,13 +1078,13 @@
         <v>2023</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1091,10 +1095,10 @@
         <v>311940</v>
       </c>
       <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1103,13 +1107,13 @@
         <v>2023</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1120,10 +1124,10 @@
         <v>312160</v>
       </c>
       <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1132,13 +1136,13 @@
         <v>2023</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1149,11 +1153,11 @@
         <v>312245</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -1161,13 +1165,13 @@
         <v>2023</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1178,11 +1182,11 @@
         <v>312430</v>
       </c>
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -1190,13 +1194,13 @@
         <v>2023</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1207,10 +1211,10 @@
         <v>313010</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1219,13 +1223,13 @@
         <v>2023</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1236,10 +1240,10 @@
         <v>313130</v>
       </c>
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1248,13 +1252,13 @@
         <v>2023</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1265,10 +1269,10 @@
         <v>313420</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1277,13 +1281,13 @@
         <v>2023</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1294,10 +1298,10 @@
         <v>313440</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1306,13 +1310,13 @@
         <v>2023</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1323,10 +1327,10 @@
         <v>313550</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1335,13 +1339,13 @@
         <v>2023</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1352,11 +1356,11 @@
         <v>313670</v>
       </c>
       <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
       <c r="D24">
         <v>2</v>
       </c>
@@ -1364,13 +1368,13 @@
         <v>2023</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1381,10 +1385,10 @@
         <v>313690</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1393,13 +1397,13 @@
         <v>2023</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1410,10 +1414,10 @@
         <v>314110</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1422,13 +1426,13 @@
         <v>2023</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1439,11 +1443,11 @@
         <v>314280</v>
       </c>
       <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -1451,13 +1455,13 @@
         <v>2023</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1468,11 +1472,11 @@
         <v>314320</v>
       </c>
       <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -1480,13 +1484,13 @@
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1497,11 +1501,11 @@
         <v>314465</v>
       </c>
       <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
       <c r="D29">
         <v>2</v>
       </c>
@@ -1509,13 +1513,13 @@
         <v>2023</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1526,10 +1530,10 @@
         <v>314530</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1538,13 +1542,13 @@
         <v>2023</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1555,11 +1559,11 @@
         <v>314610</v>
       </c>
       <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
       <c r="D31">
         <v>2</v>
       </c>
@@ -1567,13 +1571,13 @@
         <v>2023</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1584,10 +1588,10 @@
         <v>314630</v>
       </c>
       <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1596,13 +1600,13 @@
         <v>2023</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1613,11 +1617,11 @@
         <v>314930</v>
       </c>
       <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
       <c r="D33">
         <v>2</v>
       </c>
@@ -1625,13 +1629,13 @@
         <v>2023</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1642,9 +1646,9 @@
         <v>315180</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34">
@@ -1654,13 +1658,13 @@
         <v>2023</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1671,11 +1675,11 @@
         <v>315950</v>
       </c>
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
       <c r="D35">
         <v>2</v>
       </c>
@@ -1683,13 +1687,13 @@
         <v>2023</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1700,10 +1704,10 @@
         <v>316250</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1712,13 +1716,13 @@
         <v>2023</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1729,11 +1733,11 @@
         <v>316940</v>
       </c>
       <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
       <c r="D37">
         <v>2</v>
       </c>
@@ -1741,13 +1745,13 @@
         <v>2023</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1758,11 +1762,11 @@
         <v>317020</v>
       </c>
       <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
       <c r="D38">
         <v>2</v>
       </c>
@@ -1770,13 +1774,13 @@
         <v>2023</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1787,11 +1791,11 @@
         <v>317040</v>
       </c>
       <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
       <c r="D39">
         <v>1</v>
       </c>
@@ -1799,13 +1803,13 @@
         <v>2023</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="I39">
         <v>1</v>

--- a/upload/feminicidio_2023.xlsx
+++ b/upload/feminicidio_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMG\Desktop\cge\Feminicídios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E0ECF4-DA76-410F-9134-A59BF029712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962DFB6D-A0A3-4085-9E5E-6A7AD85B3D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8E8D9F0E-36F6-483E-B938-121A7D1E2ABF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8E8D9F0E-36F6-483E-B938-121A7D1E2ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="98">
   <si>
     <t>MUNICIPIO_COD</t>
   </si>
@@ -68,9 +68,6 @@
     <t>BELO HORIZONTE</t>
   </si>
   <si>
-    <t>1º RISP - Belo Horizonte</t>
-  </si>
-  <si>
     <t>1) Belo Horizonte</t>
   </si>
   <si>
@@ -80,69 +77,42 @@
     <t>CENTRAL DE MINAS</t>
   </si>
   <si>
-    <t>8º RISP - Governador Valadares</t>
-  </si>
-  <si>
     <t>3) Interior de MG</t>
   </si>
   <si>
     <t>DIVISOPOLIS</t>
   </si>
   <si>
-    <t>15º RISP - Teófilo Otoni</t>
-  </si>
-  <si>
     <t>CONSUMADO</t>
   </si>
   <si>
     <t>ARAGUARI</t>
   </si>
   <si>
-    <t>9º RISP - Uberlândia</t>
-  </si>
-  <si>
     <t>POCOS DE CALDAS</t>
   </si>
   <si>
-    <t>18º RISP - Poços de Caldas</t>
-  </si>
-  <si>
     <t>CONTAGEM</t>
   </si>
   <si>
-    <t>2º RISP - Contagem</t>
-  </si>
-  <si>
     <t>2) RMBH (sem BH)</t>
   </si>
   <si>
     <t>TIMOTEO</t>
   </si>
   <si>
-    <t>12º RISP - Ipatinga</t>
-  </si>
-  <si>
     <t>COROMANDEL</t>
   </si>
   <si>
-    <t>10º RISP - Patos de Minas</t>
-  </si>
-  <si>
     <t>DOM JOAQUIM</t>
   </si>
   <si>
-    <t>14º RISP - Curvelo</t>
-  </si>
-  <si>
     <t>MONTE ALEGRE DE MINAS</t>
   </si>
   <si>
     <t>MONTES CLAROS</t>
   </si>
   <si>
-    <t>11º RISP - Montes Claros</t>
-  </si>
-  <si>
     <t>CARATINGA</t>
   </si>
   <si>
@@ -155,9 +125,6 @@
     <t>BICAS</t>
   </si>
   <si>
-    <t>4º RISP - Juiz de Fora</t>
-  </si>
-  <si>
     <t>IGARAPE</t>
   </si>
   <si>
@@ -173,39 +140,24 @@
     <t>ITURAMA</t>
   </si>
   <si>
-    <t>5º RISP - Uberaba</t>
-  </si>
-  <si>
     <t>CAMBUQUIRA</t>
   </si>
   <si>
-    <t>6º RISP - Lavras</t>
-  </si>
-  <si>
     <t>MEDINA</t>
   </si>
   <si>
     <t>UNAI</t>
   </si>
   <si>
-    <t>16º RISP - Unaí</t>
-  </si>
-  <si>
     <t>DIVINOPOLIS</t>
   </si>
   <si>
-    <t>7º RISP - Divinópolis</t>
-  </si>
-  <si>
     <t>ALFENAS</t>
   </si>
   <si>
     <t>MATOZINHOS</t>
   </si>
   <si>
-    <t>19º RISP - Sete Lagoas</t>
-  </si>
-  <si>
     <t>SANTA RITA DO ITUETO</t>
   </si>
   <si>
@@ -221,9 +173,6 @@
     <t>OURO PRETO</t>
   </si>
   <si>
-    <t>3º RISP - Vespasiano</t>
-  </si>
-  <si>
     <t>NINHEIRA</t>
   </si>
   <si>
@@ -263,9 +212,6 @@
     <t>BOCAINA DE MINAS</t>
   </si>
   <si>
-    <t>17º RISP - Pouso Alegre</t>
-  </si>
-  <si>
     <t>NOVO CRUZEIRO</t>
   </si>
   <si>
@@ -288,6 +234,102 @@
   </si>
   <si>
     <t>PATOS DE MINAS</t>
+  </si>
+  <si>
+    <t>1º Departamento - Belo Horizonte</t>
+  </si>
+  <si>
+    <t>8º Departamento - Governador Valadares</t>
+  </si>
+  <si>
+    <t>15º Departamento - Teófilo Otoni</t>
+  </si>
+  <si>
+    <t>9º Departamento - Uberlândia</t>
+  </si>
+  <si>
+    <t>18º Departamento - Poços de Caldas</t>
+  </si>
+  <si>
+    <t>2º Departamento - Contagem</t>
+  </si>
+  <si>
+    <t>12º Departamento - Ipatinga</t>
+  </si>
+  <si>
+    <t>10º Departamento - Patos de Minas</t>
+  </si>
+  <si>
+    <t>14º Departamento - Curvelo</t>
+  </si>
+  <si>
+    <t>11º Departamento - Montes Claros</t>
+  </si>
+  <si>
+    <t>4º Departamento - Juiz de Fora</t>
+  </si>
+  <si>
+    <t>5º Departamento - Uberaba</t>
+  </si>
+  <si>
+    <t>6º Departamento - Lavras</t>
+  </si>
+  <si>
+    <t>16º Departamento - Unaí</t>
+  </si>
+  <si>
+    <t>7º Departamento - Divinópolis</t>
+  </si>
+  <si>
+    <t>19º Departamento - Sete Lagoas</t>
+  </si>
+  <si>
+    <t>3º Departamento - Vespasiano</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA DO LESTE</t>
+  </si>
+  <si>
+    <t>17º Departamento - Pouso Alegre</t>
+  </si>
+  <si>
+    <t>ITAJUBA</t>
+  </si>
+  <si>
+    <t>OURO FINO</t>
+  </si>
+  <si>
+    <t>MANHUACU</t>
+  </si>
+  <si>
+    <t>SANTANA DO PARAISO</t>
+  </si>
+  <si>
+    <t>IBIRITE</t>
+  </si>
+  <si>
+    <t>CAPELINHA</t>
+  </si>
+  <si>
+    <t>IGARATINGA</t>
+  </si>
+  <si>
+    <t>CONSELHEIRO LAFAIETE</t>
+  </si>
+  <si>
+    <t>13º Departamento - Barbacena</t>
+  </si>
+  <si>
+    <t>PARA DE MINAS</t>
+  </si>
+  <si>
+    <t>PARACATU</t>
+  </si>
+  <si>
+    <t>PIRANGUINHO</t>
+  </si>
+  <si>
+    <t>CAPINOPOLIS</t>
   </si>
 </sst>
 </file>
@@ -697,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF15E6-3641-49B4-8AD6-29D7CDB02F64}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,13 +793,13 @@
         <v>2023</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -768,7 +810,7 @@
         <v>311570</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>44927</v>
@@ -780,13 +822,13 @@
         <v>2023</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -797,7 +839,7 @@
         <v>312245</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>44927</v>
@@ -809,13 +851,13 @@
         <v>2023</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -826,7 +868,7 @@
         <v>310350</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>44928</v>
@@ -838,13 +880,13 @@
         <v>2023</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -855,7 +897,7 @@
         <v>315180</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>44928</v>
@@ -867,13 +909,13 @@
         <v>2023</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -896,13 +938,13 @@
         <v>2023</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -913,7 +955,7 @@
         <v>311860</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>44933</v>
@@ -925,13 +967,13 @@
         <v>2023</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -942,7 +984,7 @@
         <v>316870</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>44934</v>
@@ -954,13 +996,13 @@
         <v>2023</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -971,7 +1013,7 @@
         <v>311930</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>44934</v>
@@ -983,13 +1025,13 @@
         <v>2023</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1000,7 +1042,7 @@
         <v>312260</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
         <v>44935</v>
@@ -1012,13 +1054,13 @@
         <v>2023</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1029,7 +1071,7 @@
         <v>314280</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>44935</v>
@@ -1041,13 +1083,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -1058,7 +1100,7 @@
         <v>314330</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
         <v>44937</v>
@@ -1070,13 +1112,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1087,7 +1129,7 @@
         <v>311340</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
         <v>44938</v>
@@ -1099,13 +1141,13 @@
         <v>2023</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
@@ -1116,7 +1158,7 @@
         <v>314320</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>44938</v>
@@ -1128,13 +1170,13 @@
         <v>2023</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1157,13 +1199,13 @@
         <v>2023</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -1174,7 +1216,7 @@
         <v>314655</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>44940</v>
@@ -1186,13 +1228,13 @@
         <v>2023</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1203,7 +1245,7 @@
         <v>310690</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>44941</v>
@@ -1215,13 +1257,13 @@
         <v>2023</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1232,7 +1274,7 @@
         <v>313010</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>44941</v>
@@ -1244,13 +1286,13 @@
         <v>2023</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1261,7 +1303,7 @@
         <v>313550</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>44941</v>
@@ -1273,13 +1315,13 @@
         <v>2023</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1290,7 +1332,7 @@
         <v>311570</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6">
         <v>44941</v>
@@ -1302,13 +1344,13 @@
         <v>2023</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -1319,7 +1361,7 @@
         <v>317020</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6">
         <v>44947</v>
@@ -1331,13 +1373,13 @@
         <v>2023</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -1348,7 +1390,7 @@
         <v>312430</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6">
         <v>44947</v>
@@ -1360,13 +1402,13 @@
         <v>2023</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -1377,7 +1419,7 @@
         <v>313440</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6">
         <v>44947</v>
@@ -1389,13 +1431,13 @@
         <v>2023</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -1406,7 +1448,7 @@
         <v>311070</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6">
         <v>44951</v>
@@ -1418,13 +1460,13 @@
         <v>2023</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -1435,7 +1477,7 @@
         <v>314140</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6">
         <v>44953</v>
@@ -1447,13 +1489,13 @@
         <v>2023</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -1464,7 +1506,7 @@
         <v>317040</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6">
         <v>44955</v>
@@ -1476,13 +1518,13 @@
         <v>2023</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -1493,7 +1535,7 @@
         <v>317040</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6">
         <v>44955</v>
@@ -1505,13 +1547,13 @@
         <v>2023</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -1522,7 +1564,7 @@
         <v>312230</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>44956</v>
@@ -1534,13 +1576,13 @@
         <v>2023</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -1551,7 +1593,7 @@
         <v>310160</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6">
         <v>44959</v>
@@ -1563,13 +1605,13 @@
         <v>2023</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -1580,7 +1622,7 @@
         <v>311860</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C31" s="6">
         <v>44959</v>
@@ -1592,13 +1634,13 @@
         <v>2023</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -1609,7 +1651,7 @@
         <v>314110</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6">
         <v>44959</v>
@@ -1621,13 +1663,13 @@
         <v>2023</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -1638,7 +1680,7 @@
         <v>315950</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6">
         <v>44963</v>
@@ -1650,13 +1692,13 @@
         <v>2023</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -1667,7 +1709,7 @@
         <v>314930</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6">
         <v>44964</v>
@@ -1679,13 +1721,13 @@
         <v>2023</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -1696,7 +1738,7 @@
         <v>316940</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6">
         <v>44965</v>
@@ -1708,13 +1750,13 @@
         <v>2023</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
@@ -1737,13 +1779,13 @@
         <v>2023</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -1754,7 +1796,7 @@
         <v>310670</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C37" s="6">
         <v>44969</v>
@@ -1766,13 +1808,13 @@
         <v>2023</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
@@ -1783,7 +1825,7 @@
         <v>314610</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6">
         <v>44971</v>
@@ -1795,13 +1837,13 @@
         <v>2023</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
@@ -1812,7 +1854,7 @@
         <v>317020</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C39" s="6">
         <v>44973</v>
@@ -1824,13 +1866,13 @@
         <v>2023</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -1853,13 +1895,13 @@
         <v>2023</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -1870,7 +1912,7 @@
         <v>314465</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6">
         <v>44977</v>
@@ -1882,13 +1924,13 @@
         <v>2023</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -1899,7 +1941,7 @@
         <v>312760</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6">
         <v>44979</v>
@@ -1911,13 +1953,13 @@
         <v>2023</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -1940,13 +1982,13 @@
         <v>2023</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="7">
         <v>2</v>
@@ -1957,7 +1999,7 @@
         <v>311860</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C44" s="6">
         <v>44982</v>
@@ -1969,13 +2011,13 @@
         <v>2023</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="7">
         <v>1</v>
@@ -1986,7 +2028,7 @@
         <v>310670</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C45" s="6">
         <v>44982</v>
@@ -1998,13 +2040,13 @@
         <v>2023</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -2015,7 +2057,7 @@
         <v>313690</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C46" s="6">
         <v>44982</v>
@@ -2027,13 +2069,13 @@
         <v>2023</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I46" s="7">
         <v>1</v>
@@ -2044,7 +2086,7 @@
         <v>313130</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C47" s="6">
         <v>44983</v>
@@ -2056,13 +2098,13 @@
         <v>2023</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -2073,7 +2115,7 @@
         <v>313670</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C48" s="6">
         <v>44983</v>
@@ -2085,13 +2127,13 @@
         <v>2023</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -2099,13 +2141,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>314390</v>
+        <v>315725</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C49" s="6">
-        <v>44985</v>
+        <v>44984</v>
       </c>
       <c r="D49" s="7">
         <v>2</v>
@@ -2114,13 +2156,13 @@
         <v>2023</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -2128,28 +2170,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>316720</v>
+        <v>314390</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C50" s="6">
-        <v>44986</v>
+        <v>44985</v>
       </c>
       <c r="D50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="4">
         <v>2023</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
@@ -2157,13 +2199,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>310620</v>
+        <v>316720</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C51" s="6">
-        <v>44987</v>
+        <v>44986</v>
       </c>
       <c r="D51" s="7">
         <v>3</v>
@@ -2172,13 +2214,13 @@
         <v>2023</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -2186,13 +2228,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>315460</v>
+        <v>310620</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C52" s="6">
-        <v>44988</v>
+        <v>44987</v>
       </c>
       <c r="D52" s="7">
         <v>3</v>
@@ -2201,13 +2243,13 @@
         <v>2023</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -2215,10 +2257,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>317130</v>
+        <v>315460</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C53" s="6">
         <v>44988</v>
@@ -2230,13 +2272,13 @@
         <v>2023</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -2244,13 +2286,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>310670</v>
+        <v>317130</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C54" s="6">
-        <v>44990</v>
+        <v>44988</v>
       </c>
       <c r="D54" s="7">
         <v>3</v>
@@ -2259,13 +2301,13 @@
         <v>2023</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
@@ -2273,13 +2315,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>312160</v>
+        <v>310670</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C55" s="6">
-        <v>44991</v>
+        <v>44990</v>
       </c>
       <c r="D55" s="7">
         <v>3</v>
@@ -2288,13 +2330,13 @@
         <v>2023</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I55" s="7">
         <v>1</v>
@@ -2302,13 +2344,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>310240</v>
+        <v>312160</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C56" s="6">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="D56" s="7">
         <v>3</v>
@@ -2317,13 +2359,13 @@
         <v>2023</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -2331,10 +2373,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>313670</v>
+        <v>310240</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C57" s="6">
         <v>44993</v>
@@ -2346,13 +2388,13 @@
         <v>2023</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -2360,13 +2402,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>310620</v>
+        <v>313670</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C58" s="6">
-        <v>44996</v>
+        <v>44993</v>
       </c>
       <c r="D58" s="7">
         <v>3</v>
@@ -2375,13 +2417,13 @@
         <v>2023</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I58" s="7">
         <v>1</v>
@@ -2389,13 +2431,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>311820</v>
+        <v>310620</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C59" s="6">
-        <v>44997</v>
+        <v>44996</v>
       </c>
       <c r="D59" s="7">
         <v>3</v>
@@ -2404,13 +2446,13 @@
         <v>2023</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -2418,13 +2460,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>310620</v>
+        <v>311820</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C60" s="6">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
@@ -2433,24 +2475,24 @@
         <v>2023</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I60" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>310720</v>
+        <v>310620</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C61" s="6">
         <v>45000</v>
@@ -2462,27 +2504,27 @@
         <v>2023</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>313130</v>
+        <v>310720</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C62" s="6">
-        <v>45001</v>
+        <v>45000</v>
       </c>
       <c r="D62" s="7">
         <v>3</v>
@@ -2491,13 +2533,13 @@
         <v>2023</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I62" s="7">
         <v>1</v>
@@ -2505,10 +2547,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>314530</v>
+        <v>313130</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C63" s="6">
         <v>45001</v>
@@ -2520,13 +2562,13 @@
         <v>2023</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I63" s="7">
         <v>1</v>
@@ -2534,13 +2576,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>315140</v>
+        <v>314530</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C64" s="6">
-        <v>45003</v>
+        <v>45001</v>
       </c>
       <c r="D64" s="7">
         <v>3</v>
@@ -2549,13 +2591,13 @@
         <v>2023</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I64" s="7">
         <v>1</v>
@@ -2563,10 +2605,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>314630</v>
+        <v>315140</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C65" s="6">
         <v>45003</v>
@@ -2578,13 +2620,13 @@
         <v>2023</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -2592,13 +2634,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>310180</v>
+        <v>314630</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C66" s="6">
-        <v>45005</v>
+        <v>45003</v>
       </c>
       <c r="D66" s="7">
         <v>3</v>
@@ -2607,13 +2649,13 @@
         <v>2023</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I66" s="7">
         <v>1</v>
@@ -2621,13 +2663,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>310620</v>
+        <v>310180</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C67" s="6">
-        <v>45006</v>
+        <v>45005</v>
       </c>
       <c r="D67" s="7">
         <v>3</v>
@@ -2636,13 +2678,13 @@
         <v>2023</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -2650,13 +2692,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>315140</v>
+        <v>310620</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C68" s="6">
-        <v>45007</v>
+        <v>45006</v>
       </c>
       <c r="D68" s="7">
         <v>3</v>
@@ -2665,13 +2707,13 @@
         <v>2023</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
@@ -2679,13 +2721,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>313190</v>
+        <v>315140</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C69" s="6">
-        <v>45011</v>
+        <v>45007</v>
       </c>
       <c r="D69" s="7">
         <v>3</v>
@@ -2694,13 +2736,13 @@
         <v>2023</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -2708,10 +2750,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>313420</v>
+        <v>313190</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C70" s="6">
         <v>45011</v>
@@ -2723,13 +2765,13 @@
         <v>2023</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I70" s="7">
         <v>1</v>
@@ -2737,10 +2779,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>311940</v>
+        <v>313420</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6">
         <v>45011</v>
@@ -2752,13 +2794,13 @@
         <v>2023</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I71" s="7">
         <v>1</v>
@@ -2766,13 +2808,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>314800</v>
+        <v>311940</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C72" s="6">
-        <v>45012</v>
+        <v>45011</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>
@@ -2781,15 +2823,682 @@
         <v>2023</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>314800</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="6">
+        <v>45012</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>313240</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="6">
+        <v>45017</v>
+      </c>
+      <c r="D74" s="7">
+        <v>4</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="6">
+        <v>45018</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>315140</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45018</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>313190</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="6">
+        <v>45021</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>314600</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="6">
+        <v>45021</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4</v>
+      </c>
+      <c r="E78" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>310350</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="6">
+        <v>45022</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>313940</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="6">
+        <v>45022</v>
+      </c>
+      <c r="D80" s="7">
+        <v>4</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>315895</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="6">
+        <v>45023</v>
+      </c>
+      <c r="D81" s="7">
+        <v>4</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>312980</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="6">
+        <v>45024</v>
+      </c>
+      <c r="D82" s="7">
+        <v>4</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>311230</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="6">
+        <v>45026</v>
+      </c>
+      <c r="D83" s="7">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>311860</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="6">
+        <v>45030</v>
+      </c>
+      <c r="D84" s="7">
+        <v>4</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>313020</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="6">
+        <v>45031</v>
+      </c>
+      <c r="D85" s="7">
+        <v>4</v>
+      </c>
+      <c r="E85" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>311830</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="6">
+        <v>45031</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4</v>
+      </c>
+      <c r="E86" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>314330</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="6">
+        <v>45032</v>
+      </c>
+      <c r="D87" s="7">
+        <v>4</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>314710</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="6">
+        <v>45033</v>
+      </c>
+      <c r="D88" s="7">
+        <v>4</v>
+      </c>
+      <c r="E88" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>314700</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="6">
+        <v>45038</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4</v>
+      </c>
+      <c r="E89" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>312980</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="6">
+        <v>45042</v>
+      </c>
+      <c r="D90" s="7">
+        <v>4</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>315100</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="6">
+        <v>45042</v>
+      </c>
+      <c r="D91" s="7">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>311260</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="6">
+        <v>45042</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="6">
+        <v>45045</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4</v>
+      </c>
+      <c r="E93" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>310620</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="6">
+        <v>45045</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4</v>
+      </c>
+      <c r="E94" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>317020</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="6">
+        <v>45046</v>
+      </c>
+      <c r="D95" s="7">
+        <v>4</v>
+      </c>
+      <c r="E95" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="7">
         <v>1</v>
       </c>
     </row>
